--- a/Objects List.xlsx
+++ b/Objects List.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="44">
   <si>
     <t>Descrizione</t>
   </si>
@@ -93,21 +93,12 @@
     <t>Viti</t>
   </si>
   <si>
-    <t>Jumpers</t>
-  </si>
-  <si>
     <t>Preparato per Stagnatura</t>
   </si>
   <si>
-    <t>Filo Rame</t>
-  </si>
-  <si>
     <t>Anelli Finecavo Rame</t>
   </si>
   <si>
-    <t>Guaina Termoisolante</t>
-  </si>
-  <si>
     <t>Prese Pannello (x4)</t>
   </si>
   <si>
@@ -127,6 +118,39 @@
   </si>
   <si>
     <t>-------&gt;</t>
+  </si>
+  <si>
+    <t>Altoparlante (2x)</t>
+  </si>
+  <si>
+    <t>DFPlayer (1x)</t>
+  </si>
+  <si>
+    <t>https://www.amazon.it/gp/product/B07912P1XL/ref=oh_aui_detailpage_o02_s00?ie=UTF8&amp;psc=1</t>
+  </si>
+  <si>
+    <t>https://www.amazon.it/gp/product/B073XH8KK8/ref=oh_aui_detailpage_o03_s00?ie=UTF8&amp;psc=1</t>
+  </si>
+  <si>
+    <t>https://www.amazon.it/gp/product/B00UD3RFQG/ref=oh_aui_detailpage_o00_s00?ie=UTF8&amp;psc=1</t>
+  </si>
+  <si>
+    <t>https://www.amazon.it/Breadboard-Jumper-Nastro-Multicolore-Arduino/dp/B01LZWFTPK/ref=sr_1_8?s=electronics&amp;ie=UTF8&amp;qid=1521113914&amp;sr=1-8&amp;keywords=jumpers</t>
+  </si>
+  <si>
+    <t>Jumpers (2x)</t>
+  </si>
+  <si>
+    <t>Filo Rame (4m)</t>
+  </si>
+  <si>
+    <t>Guaina Termoretraibile</t>
+  </si>
+  <si>
+    <t>https://www.amazon.it/gp/product/B0041JPX1C/ref=oh_aui_search_detailpage?ie=UTF8&amp;psc=1</t>
+  </si>
+  <si>
+    <t>?</t>
   </si>
 </sst>
 </file>
@@ -219,80 +243,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -575,10 +599,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F24"/>
+  <dimension ref="B2:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -588,24 +612,24 @@
     <col min="3" max="3" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="100.42578125" style="25" customWidth="1"/>
+    <col min="6" max="6" width="111.28515625" style="17" customWidth="1"/>
     <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="15" t="s">
         <v>2</v>
       </c>
     </row>
@@ -613,18 +637,18 @@
       <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="7">
         <f>54.38/1.14</f>
         <v>47.701754385964918</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="21">
         <f>10.9/1.14</f>
         <v>9.5614035087719316</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="23" t="s">
         <v>8</v>
       </c>
     </row>
@@ -632,259 +656,334 @@
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="7">
         <f>7.7/1.14</f>
         <v>6.7543859649122817</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="14"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="24"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="8">
         <f>12.2/1.14</f>
         <v>10.701754385964913</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="15"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="25"/>
     </row>
     <row r="6" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="6">
         <v>1</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="6">
         <v>2.2000000000000002</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="26" t="s">
+      <c r="F6" s="18" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="6">
         <v>4.95</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="6">
         <v>2.95</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="26" t="s">
+      <c r="F7" s="18" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="17">
+      <c r="C8" s="10">
         <v>8.99</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="26">
         <v>0</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="24" t="s">
+      <c r="F8" s="27" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="8">
         <v>11.99</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="12"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="28"/>
     </row>
     <row r="10" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="18">
+      <c r="C10" s="11">
         <v>13.1</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="6">
         <v>8.9</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="19" t="s">
+      <c r="F10" s="12" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="6">
         <f>7.47/10*2</f>
         <v>1.494</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="6">
         <v>0</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="23"/>
+      <c r="F11" s="16"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="6">
         <f>14/4*1</f>
         <v>3.5</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="6">
         <v>0</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="23"/>
+      <c r="F12" s="16"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="23"/>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="7" t="s">
+      <c r="C13" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="16"/>
+    </row>
+    <row r="14" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B14" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="6">
+        <f>6.99*2</f>
+        <v>13.98</v>
+      </c>
+      <c r="D14" s="6">
+        <v>0</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="16"/>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="23"/>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="23"/>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="8">
+      <c r="C16" s="6">
         <f>17.86/10*1</f>
         <v>1.786</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="6">
         <v>0</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="E16" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="23"/>
+      <c r="F16" s="16"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="23"/>
+      <c r="B17" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="6">
+        <f>0.5*4</f>
+        <v>2</v>
+      </c>
+      <c r="D17" s="6">
+        <v>0</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" s="16"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F18" s="23"/>
+      <c r="B18" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="6">
+        <v>11.21</v>
+      </c>
+      <c r="D18" s="6">
+        <v>0</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F19" s="23"/>
+      <c r="B19" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="6">
+        <f>15.49/5</f>
+        <v>3.0979999999999999</v>
+      </c>
+      <c r="D19" s="6">
+        <v>0</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19" s="18" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="6">
+        <f>15.9/3</f>
+        <v>5.3</v>
+      </c>
+      <c r="D20" s="6">
+        <v>0</v>
+      </c>
+      <c r="E20" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F20" s="23"/>
+      <c r="F20" s="18" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F21" s="23"/>
+      <c r="B21" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="6">
+        <f>5.24/2</f>
+        <v>2.62</v>
+      </c>
+      <c r="D21" s="6">
+        <v>0</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="F22" s="27"/>
+        <v>26</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22" s="16"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F23" s="16"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C24" s="2">
-        <f>SUM(C3:C22)</f>
-        <v>111.9678947368421</v>
-      </c>
-      <c r="D24" s="2">
-        <f>SUM(D3:D22)</f>
+      <c r="B24" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F24" s="19"/>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C26" s="2">
+        <f>SUM(C3:C24)</f>
+        <v>150.17589473684214</v>
+      </c>
+      <c r="D26" s="2">
+        <f>SUM(D3:D24)</f>
         <v>23.611403508771929</v>
       </c>
-      <c r="E24" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="F24" s="25">
-        <f>D24+C24</f>
-        <v>135.57929824561404</v>
+      <c r="E26" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="F26" s="17">
+        <f>D26+C26</f>
+        <v>173.78729824561407</v>
       </c>
     </row>
   </sheetData>
@@ -902,8 +1001,12 @@
     <hyperlink ref="F8" r:id="rId3"/>
     <hyperlink ref="F7" r:id="rId4"/>
     <hyperlink ref="F6" r:id="rId5"/>
+    <hyperlink ref="F19" r:id="rId6"/>
+    <hyperlink ref="F18" r:id="rId7"/>
+    <hyperlink ref="F20" r:id="rId8"/>
+    <hyperlink ref="F14" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId10"/>
 </worksheet>
 </file>
--- a/Objects List.xlsx
+++ b/Objects List.xlsx
@@ -1,16 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20225"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12640"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -19,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="47">
   <si>
     <t>Descrizione</t>
   </si>
@@ -151,12 +154,21 @@
   </si>
   <si>
     <t>?</t>
+  </si>
+  <si>
+    <t>XLS da Pannello (X4)</t>
+  </si>
+  <si>
+    <t>XLS Femmina (X4)</t>
+  </si>
+  <si>
+    <t>Cavo per Connettori XLS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -203,7 +215,7 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -211,10 +223,10 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -222,7 +234,7 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -379,7 +391,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -414,7 +426,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -591,7 +603,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -599,24 +611,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F26"/>
+  <dimension ref="B2:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="40.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="1"/>
+    <col min="2" max="2" width="40.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="111.28515625" style="17" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="5" width="10.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="111.33203125" style="17" customWidth="1"/>
+    <col min="7" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:6" ht="18">
       <c r="B2" s="13" t="s">
         <v>0</v>
       </c>
@@ -633,7 +645,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:6">
       <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
@@ -652,7 +664,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6">
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
@@ -664,7 +676,7 @@
       <c r="E4" s="21"/>
       <c r="F4" s="24"/>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6">
       <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
@@ -676,7 +688,7 @@
       <c r="E5" s="22"/>
       <c r="F5" s="25"/>
     </row>
-    <row r="6" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:6" ht="28">
       <c r="B6" s="5" t="s">
         <v>9</v>
       </c>
@@ -693,7 +705,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:6" ht="28">
       <c r="B7" s="5" t="s">
         <v>19</v>
       </c>
@@ -710,7 +722,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:6">
       <c r="B8" s="9" t="s">
         <v>15</v>
       </c>
@@ -727,7 +739,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:6">
       <c r="B9" s="4" t="s">
         <v>16</v>
       </c>
@@ -738,7 +750,7 @@
       <c r="E9" s="22"/>
       <c r="F9" s="28"/>
     </row>
-    <row r="10" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:6" ht="28">
       <c r="B10" s="5" t="s">
         <v>12</v>
       </c>
@@ -755,7 +767,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:6">
       <c r="B11" s="5" t="s">
         <v>20</v>
       </c>
@@ -771,7 +783,7 @@
       </c>
       <c r="F11" s="16"/>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:6">
       <c r="B12" s="5" t="s">
         <v>21</v>
       </c>
@@ -787,7 +799,7 @@
       </c>
       <c r="F12" s="16"/>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:6">
       <c r="B13" s="5" t="s">
         <v>22</v>
       </c>
@@ -798,7 +810,7 @@
       <c r="E13" s="6"/>
       <c r="F13" s="16"/>
     </row>
-    <row r="14" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:6" ht="28">
       <c r="B14" s="5" t="s">
         <v>39</v>
       </c>
@@ -816,7 +828,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:6">
       <c r="B15" s="5" t="s">
         <v>23</v>
       </c>
@@ -827,7 +839,7 @@
       <c r="E15" s="6"/>
       <c r="F15" s="16"/>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:6">
       <c r="B16" s="5" t="s">
         <v>24</v>
       </c>
@@ -843,7 +855,7 @@
       </c>
       <c r="F16" s="16"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6">
       <c r="B17" s="5" t="s">
         <v>40</v>
       </c>
@@ -859,7 +871,7 @@
       </c>
       <c r="F17" s="16"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6">
       <c r="B18" s="5" t="s">
         <v>33</v>
       </c>
@@ -876,7 +888,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:6">
       <c r="B19" s="5" t="s">
         <v>34</v>
       </c>
@@ -894,7 +906,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:6">
       <c r="B20" s="5" t="s">
         <v>25</v>
       </c>
@@ -912,7 +924,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:6">
       <c r="B21" s="5" t="s">
         <v>41</v>
       </c>
@@ -930,7 +942,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:6">
       <c r="B22" s="5" t="s">
         <v>26</v>
       </c>
@@ -943,46 +955,97 @@
       </c>
       <c r="F22" s="16"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:6">
       <c r="B23" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6">
+      <c r="B24" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6">
+      <c r="B25" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6">
+      <c r="B26" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6" t="s">
+      <c r="C26" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="F23" s="16"/>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="4" t="s">
+      <c r="F26" s="16"/>
+    </row>
+    <row r="27" spans="2:6">
+      <c r="B27" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8" t="s">
+      <c r="C27" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F24" s="19"/>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C26" s="2">
-        <f>SUM(C3:C24)</f>
+      <c r="F27" s="19"/>
+    </row>
+    <row r="29" spans="2:6">
+      <c r="C29" s="2">
+        <f>SUM(C3:C27)</f>
         <v>150.17589473684214</v>
       </c>
-      <c r="D26" s="2">
-        <f>SUM(D3:D24)</f>
+      <c r="D29" s="2">
+        <f>SUM(D3:D27)</f>
         <v>23.611403508771929</v>
       </c>
-      <c r="E26" s="20" t="s">
+      <c r="E29" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="F26" s="17">
-        <f>D26+C26</f>
+      <c r="F29" s="17">
+        <f>D29+C29</f>
         <v>173.78729824561407</v>
       </c>
     </row>
@@ -1007,6 +1070,10 @@
     <hyperlink ref="F14" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId10"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/Objects List.xlsx
+++ b/Objects List.xlsx
@@ -602,7 +602,7 @@
   <dimension ref="B2:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Objects List.xlsx
+++ b/Objects List.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20225"/>
-  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12640"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="52">
   <si>
     <t>Descrizione</t>
   </si>
@@ -163,13 +163,28 @@
   </si>
   <si>
     <t>Cavo per Connettori XLS</t>
+  </si>
+  <si>
+    <t>Armadio Case</t>
+  </si>
+  <si>
+    <t>Automation24</t>
+  </si>
+  <si>
+    <t>https://www.automation24.it/armadio-a-parete-fibox-arca-403015-8120006</t>
+  </si>
+  <si>
+    <t>Pistoncini Case</t>
+  </si>
+  <si>
+    <t>https://www.amazon.it/gp/product/B01N2VANRJ/ref=oh_aui_detailpage_o00_s00?ie=UTF8&amp;psc=1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -188,6 +203,21 @@
     <font>
       <b/>
       <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -244,7 +274,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -328,6 +358,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -603,7 +639,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -611,24 +647,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F29"/>
+  <dimension ref="B2:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="1"/>
-    <col min="2" max="2" width="40.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="1"/>
+    <col min="2" max="2" width="40.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="111.33203125" style="17" customWidth="1"/>
-    <col min="7" max="16384" width="8.83203125" style="1"/>
+    <col min="5" max="5" width="13.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="111.28515625" style="17" customWidth="1"/>
+    <col min="7" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="18">
+    <row r="2" spans="2:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B2" s="13" t="s">
         <v>0</v>
       </c>
@@ -645,7 +681,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:6">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
@@ -664,7 +700,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="2:6">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
@@ -676,7 +712,7 @@
       <c r="E4" s="21"/>
       <c r="F4" s="24"/>
     </row>
-    <row r="5" spans="2:6">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
@@ -688,7 +724,7 @@
       <c r="E5" s="22"/>
       <c r="F5" s="25"/>
     </row>
-    <row r="6" spans="2:6" ht="28">
+    <row r="6" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
         <v>9</v>
       </c>
@@ -705,7 +741,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="2:6" ht="28">
+    <row r="7" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
         <v>19</v>
       </c>
@@ -722,7 +758,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="2:6">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="9" t="s">
         <v>15</v>
       </c>
@@ -739,7 +775,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:6">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
         <v>16</v>
       </c>
@@ -750,7 +786,7 @@
       <c r="E9" s="22"/>
       <c r="F9" s="28"/>
     </row>
-    <row r="10" spans="2:6" ht="28">
+    <row r="10" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
         <v>12</v>
       </c>
@@ -767,7 +803,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="2:6">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
         <v>20</v>
       </c>
@@ -783,7 +819,7 @@
       </c>
       <c r="F11" s="16"/>
     </row>
-    <row r="12" spans="2:6">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
         <v>21</v>
       </c>
@@ -799,7 +835,7 @@
       </c>
       <c r="F12" s="16"/>
     </row>
-    <row r="13" spans="2:6">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
         <v>22</v>
       </c>
@@ -810,7 +846,7 @@
       <c r="E13" s="6"/>
       <c r="F13" s="16"/>
     </row>
-    <row r="14" spans="2:6" ht="28">
+    <row r="14" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
         <v>39</v>
       </c>
@@ -828,7 +864,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="2:6">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
         <v>23</v>
       </c>
@@ -839,7 +875,7 @@
       <c r="E15" s="6"/>
       <c r="F15" s="16"/>
     </row>
-    <row r="16" spans="2:6">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
         <v>24</v>
       </c>
@@ -855,7 +891,7 @@
       </c>
       <c r="F16" s="16"/>
     </row>
-    <row r="17" spans="2:6">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
         <v>40</v>
       </c>
@@ -871,7 +907,7 @@
       </c>
       <c r="F17" s="16"/>
     </row>
-    <row r="18" spans="2:6">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
         <v>33</v>
       </c>
@@ -888,7 +924,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="2:6">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
         <v>34</v>
       </c>
@@ -906,7 +942,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="2:6">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
         <v>25</v>
       </c>
@@ -924,7 +960,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="2:6">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
         <v>41</v>
       </c>
@@ -942,7 +978,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="2:6">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
         <v>26</v>
       </c>
@@ -955,7 +991,7 @@
       </c>
       <c r="F22" s="16"/>
     </row>
-    <row r="23" spans="2:6">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
         <v>46</v>
       </c>
@@ -972,7 +1008,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="2:6">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
         <v>45</v>
       </c>
@@ -989,7 +1025,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="2:6">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
         <v>44</v>
       </c>
@@ -1006,48 +1042,85 @@
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="2:6">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="6">
+        <v>67.22</v>
+      </c>
+      <c r="D26" s="6">
+        <v>0</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F26" s="18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B27" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" s="6">
+        <v>13.99</v>
+      </c>
+      <c r="D27" s="6">
+        <v>0</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F27" s="29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B28" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6" t="s">
+      <c r="C28" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="16"/>
-    </row>
-    <row r="27" spans="2:6">
-      <c r="B27" s="4" t="s">
+      <c r="F28" s="16"/>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B29" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8" t="s">
+      <c r="C29" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F27" s="19"/>
-    </row>
-    <row r="29" spans="2:6">
-      <c r="C29" s="2">
-        <f>SUM(C3:C27)</f>
-        <v>150.17589473684214</v>
-      </c>
-      <c r="D29" s="2">
-        <f>SUM(D3:D27)</f>
+      <c r="F29" s="19"/>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C31" s="2">
+        <f>SUM(C3:C29)</f>
+        <v>231.38589473684215</v>
+      </c>
+      <c r="D31" s="2">
+        <f>SUM(D3:D29)</f>
         <v>23.611403508771929</v>
       </c>
-      <c r="E29" s="20" t="s">
+      <c r="E31" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="F29" s="17">
-        <f>D29+C29</f>
-        <v>173.78729824561407</v>
-      </c>
+      <c r="F31" s="17">
+        <f>D31+C31</f>
+        <v>254.99729824561408</v>
+      </c>
+    </row>
+    <row r="33" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F33" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1068,8 +1141,11 @@
     <hyperlink ref="F18" r:id="rId7"/>
     <hyperlink ref="F20" r:id="rId8"/>
     <hyperlink ref="F14" r:id="rId9"/>
+    <hyperlink ref="F26" r:id="rId10"/>
+    <hyperlink ref="F27" r:id="rId11"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId12"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
